--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>时间</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>已处理</t>
+  </si>
+  <si>
+    <t>2、1年下单的数据</t>
+  </si>
+  <si>
+    <t>朱伟</t>
   </si>
 </sst>
 </file>
@@ -57,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,6 +85,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -102,6 +116,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -111,16 +160,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,81 +223,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,6 +262,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,120 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,16 +439,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,8 +456,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +473,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,40 +522,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,7 +555,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,124 +564,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -782,6 +788,44 @@
         <a:xfrm>
           <a:off x="1771650" y="885825"/>
           <a:ext cx="6058535" cy="3401060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1325245</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1527844823(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="4800600"/>
+          <a:ext cx="7002145" cy="3220085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,15 +1095,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1112,6 +1156,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>时间</t>
   </si>
@@ -59,18 +59,28 @@
   </si>
   <si>
     <t>3、尼尔森5月份的数据帮忙拉下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张龙云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拉取在售商品、库存、销量数据</t>
+  </si>
+  <si>
+    <t>刘静</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +97,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +254,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -115,9 +449,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -132,10 +708,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -146,7 +769,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -168,7 +791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -206,7 +829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -244,7 +867,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -258,7 +881,45 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1857375" y="8620125"/>
-          <a:ext cx="5382377" cy="4801270"/>
+          <a:ext cx="5382260" cy="4801235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1363345</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="1528101535(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="14106525"/>
+          <a:ext cx="7097395" cy="4877435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,20 +1183,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -545,7 +1207,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43252</v>
       </c>
@@ -588,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -605,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -622,9 +1284,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="79" customFormat="1" spans="1:6">
+      <c r="A79" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>时间</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>刘静</t>
+  </si>
+  <si>
+    <t>2、62银联活动支付信息恢复正常</t>
   </si>
 </sst>
 </file>
@@ -76,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,13 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,13 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -220,22 +209,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +259,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,66 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,96 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -920,6 +923,44 @@
         <a:xfrm>
           <a:off x="1762125" y="14106525"/>
           <a:ext cx="7097395" cy="4877435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1372870</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="1528101988(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="19688175"/>
+          <a:ext cx="7087870" cy="4934585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,12 +1230,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1304,6 +1345,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>时间</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>2、62银联活动支付信息恢复正常</t>
+  </si>
+  <si>
+    <t>1、mc系统里面的，6.2号一整天的，MP号对应的订单号能拉出来吗</t>
+  </si>
+  <si>
+    <t>刘丹</t>
   </si>
 </sst>
 </file>
@@ -79,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,9 +106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,24 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,9 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +203,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -208,37 +226,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,17 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,16 +478,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +509,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -517,39 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,16 +576,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,115 +594,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,6 +967,44 @@
         <a:xfrm>
           <a:off x="1781175" y="19688175"/>
           <a:ext cx="7087870" cy="4934585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1496695</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="1528247162(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="25431750"/>
+          <a:ext cx="7192645" cy="4915535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1230,12 +1274,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1362,6 +1406,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="144" customFormat="1" spans="1:6">
+      <c r="A144" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>刘丹</t>
+  </si>
+  <si>
+    <t>2、分时段成本后台审核</t>
+  </si>
+  <si>
+    <t>吕海琴</t>
   </si>
 </sst>
 </file>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,14 +113,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,46 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,55 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +271,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,7 +355,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,126 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +485,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,23 +507,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +553,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,6 +1019,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1687195</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="1528269767(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="30870525"/>
+          <a:ext cx="7402195" cy="3543935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1274,12 +1318,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1426,6 +1470,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -83,19 +83,17 @@
   </si>
   <si>
     <t>吕海琴</t>
+  </si>
+  <si>
+    <t>1、 604040 分时段成本后台审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,151 +110,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,194 +129,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -464,251 +138,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,57 +155,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -784,7 +169,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -806,7 +191,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -844,7 +229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -882,7 +267,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -926,7 +311,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -964,7 +349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,7 +387,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1040,7 +425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1049,6 +434,44 @@
         <a:xfrm>
           <a:off x="1781175" y="30870525"/>
           <a:ext cx="7402195" cy="3543935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4009550</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>142469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="35013900"/>
+          <a:ext cx="3800000" cy="3247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,21 +735,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1336,7 +758,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43252</v>
       </c>
@@ -1379,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>43255</v>
       </c>
@@ -1433,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" customFormat="1" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>43257</v>
       </c>
@@ -1470,9 +892,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>43258</v>
+      </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
@@ -1487,9 +912,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28080" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -79,21 +79,41 @@
     <t>刘丹</t>
   </si>
   <si>
+    <t>1、 604040 分时段成本后台审核</t>
+  </si>
+  <si>
+    <t>吕海琴</t>
+  </si>
+  <si>
     <t>2、分时段成本后台审核</t>
   </si>
   <si>
-    <t>吕海琴</t>
-  </si>
-  <si>
-    <t>1、 604040 分时段成本后台审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1、11998671、11999300、11998860  11998735这些订单在crm系统内显示配货中，但是在供应商后台搜索不到订单，因这些订单是供应商系统无法推送的（童年时光），故要求退款处理；但是因供应商查不到订单，所以无法退款，请尽快处理</t>
+  </si>
+  <si>
+    <t>2、开的加盟管理后台分页BUG</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>3、PC密码过于简单页面，没有输入短信验证码提示短信验证码错误</t>
+  </si>
+  <si>
+    <t>茅晓冬</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +130,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +287,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,13 +482,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,11 +740,61 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -169,7 +805,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -191,7 +827,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -229,7 +865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -267,7 +903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -311,7 +947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -349,7 +985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -387,7 +1023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -425,7 +1061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,7 +1099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -471,7 +1107,121 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1838325" y="35013900"/>
-          <a:ext cx="3800000" cy="3247619"/>
+          <a:ext cx="3799840" cy="3247390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1528433538(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="39157275"/>
+          <a:ext cx="8459470" cy="5458460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1439545</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="1528433580(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="45253275"/>
+          <a:ext cx="7164070" cy="4134485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="428238418912851539"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="49987200"/>
+          <a:ext cx="5657850" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,20 +1485,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -758,7 +1509,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43252</v>
       </c>
@@ -801,7 +1552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -818,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -835,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>43255</v>
       </c>
@@ -855,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:6">
       <c r="B111" t="s">
         <v>18</v>
       </c>
@@ -872,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>43257</v>
       </c>
@@ -892,12 +1643,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>43258</v>
       </c>
       <c r="B177" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
@@ -912,9 +1663,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6">
       <c r="B201" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C201" t="s">
         <v>22</v>
@@ -929,9 +1680,63 @@
         <v>11</v>
       </c>
     </row>
+    <row r="223" ht="40.5" spans="1:6">
+      <c r="A223" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C223" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>26</v>
+      </c>
+      <c r="F258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>时间</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>茅晓冬</t>
+  </si>
+  <si>
+    <t>1、PC WAP 网站不能打开</t>
+  </si>
+  <si>
+    <t>黄伟/刘丹</t>
+  </si>
+  <si>
+    <t>李海涛/张涛</t>
+  </si>
+  <si>
+    <t>最近浏览异常，疑似有攻击，启用了服务器的防火墙</t>
   </si>
 </sst>
 </file>
@@ -108,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1230,6 +1242,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1610995</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="1529026143"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="60674250"/>
+          <a:ext cx="7316470" cy="4058285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1239520</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="1529026143(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="60702825"/>
+          <a:ext cx="7221220" cy="4858385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1491,12 +1579,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
+      <selection pane="bottomLeft" activeCell="G348" sqref="G348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1734,6 +1822,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C348" t="s">
+        <v>30</v>
+      </c>
+      <c r="D348" t="s">
+        <v>31</v>
+      </c>
+      <c r="E348" t="s">
+        <v>26</v>
+      </c>
+      <c r="F348" t="s">
+        <v>11</v>
+      </c>
+      <c r="G348" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>最近浏览异常，疑似有攻击，启用了服务器的防火墙</t>
+  </si>
+  <si>
+    <t>1、海涛，帮我导一下客户数据，湖南，江西，广东的，宝宝年龄在2岁以上的，消费多少不计，我要名字和电话号码，谢谢</t>
+  </si>
+  <si>
+    <t>李珍/朱伟</t>
+  </si>
+  <si>
+    <t>2、开的加盟新增今日头条和百度渠道类型</t>
+  </si>
+  <si>
+    <t>李海涛/刘刚</t>
   </si>
 </sst>
 </file>
@@ -120,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -742,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +763,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1318,6 +1333,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="企业微信截图_152947731422"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="66474975"/>
+          <a:ext cx="5525135" cy="4505960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1334770</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="1529477625(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="71589900"/>
+          <a:ext cx="7011670" cy="3124835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1579,12 +1670,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G348" sqref="G348"/>
+      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1845,6 +1936,43 @@
         <v>32</v>
       </c>
     </row>
+    <row r="381" ht="27" spans="1:6">
+      <c r="A381" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C381" t="s">
+        <v>34</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6">
+      <c r="B411" t="s">
+        <v>35</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411" t="s">
+        <v>36</v>
+      </c>
+      <c r="E411" t="s">
+        <v>10</v>
+      </c>
+      <c r="F411" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12780"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>李海涛/刘刚</t>
+  </si>
+  <si>
+    <t>1、开店加盟功能优化</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +766,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1409,6 +1409,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1363345</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="1530090207"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="75438000"/>
+          <a:ext cx="6954520" cy="4353560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1670,12 +1708,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
+      <selection pane="bottomLeft" activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1940,7 +1978,7 @@
       <c r="A381" s="2">
         <v>43271</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C381" t="s">
@@ -1970,6 +2008,26 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" t="s">
+        <v>9</v>
+      </c>
+      <c r="E434" t="s">
+        <v>10</v>
+      </c>
+      <c r="F434" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-06 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>时间</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>1、开店加盟功能优化</t>
+  </si>
+  <si>
+    <t>1、http://ad.t.muyingzhijia.com/Admin/Default.aspx   特卖后台，2142/2144 这两个工号都开下哦</t>
+  </si>
+  <si>
+    <t>姚飞</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,29 +165,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +269,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -316,6 +322,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,126 +467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,30 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,6 +527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +590,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -615,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,6 +1453,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1458595</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="1530250091(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="80619600"/>
+          <a:ext cx="7211695" cy="4486910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1708,12 +1752,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G434"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F434" sqref="F434"/>
+      <selection pane="bottomLeft" activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2031,6 +2075,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="463" customFormat="1" ht="27" spans="1:6">
+      <c r="A463" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C463" t="s">
+        <v>39</v>
+      </c>
+      <c r="D463" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" t="s">
+        <v>10</v>
+      </c>
+      <c r="F463" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
